--- a/nuno-dataset/test-solidos-03/content/results/metrics_5_9.xlsx
+++ b/nuno-dataset/test-solidos-03/content/results/metrics_5_9.xlsx
@@ -482,28 +482,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.8350055950777864</v>
+        <v>0.8959034394449673</v>
       </c>
       <c r="C2" t="n">
-        <v>-0.4259993472852783</v>
+        <v>0.0852501382250016</v>
       </c>
       <c r="D2" t="n">
-        <v>0.9489588125387339</v>
+        <v>0.780242560798418</v>
       </c>
       <c r="E2" t="n">
-        <v>0.5972665763606995</v>
+        <v>0.559158627228096</v>
       </c>
       <c r="F2" t="n">
-        <v>19.89837265014648</v>
+        <v>12.55407619476318</v>
       </c>
       <c r="G2" t="n">
-        <v>104.0424880981445</v>
+        <v>50.6839485168457</v>
       </c>
       <c r="H2" t="n">
-        <v>9.324320793151855</v>
+        <v>20.9796257019043</v>
       </c>
       <c r="I2" t="n">
-        <v>59.46916961669922</v>
+        <v>36.70544815063477</v>
       </c>
     </row>
     <row r="3">
@@ -513,28 +513,28 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.8351561754539891</v>
+        <v>0.8984059373966047</v>
       </c>
       <c r="C3" t="n">
-        <v>-0.4235130682459045</v>
+        <v>0.119557568238479</v>
       </c>
       <c r="D3" t="n">
-        <v>0.9486102367777295</v>
+        <v>0.7840921518764169</v>
       </c>
       <c r="E3" t="n">
-        <v>0.5977140179575497</v>
+        <v>0.5733225004252688</v>
       </c>
       <c r="F3" t="n">
-        <v>19.88021278381348</v>
+        <v>12.25227355957031</v>
       </c>
       <c r="G3" t="n">
-        <v>103.861083984375</v>
+        <v>48.78306579589844</v>
       </c>
       <c r="H3" t="n">
-        <v>9.387998580932617</v>
+        <v>20.61211776733398</v>
       </c>
       <c r="I3" t="n">
-        <v>59.40309524536133</v>
+        <v>35.52613067626953</v>
       </c>
     </row>
     <row r="4">
@@ -544,28 +544,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.8354505541720816</v>
+        <v>0.9009550162701848</v>
       </c>
       <c r="C4" t="n">
-        <v>-0.4196859202986201</v>
+        <v>0.1555886772192722</v>
       </c>
       <c r="D4" t="n">
-        <v>0.9483822796719227</v>
+        <v>0.7873877605988863</v>
       </c>
       <c r="E4" t="n">
-        <v>0.5985817892981942</v>
+        <v>0.5877945350041218</v>
       </c>
       <c r="F4" t="n">
-        <v>19.84471130371094</v>
+        <v>11.94485473632812</v>
       </c>
       <c r="G4" t="n">
-        <v>103.5818557739258</v>
+        <v>46.78667068481445</v>
       </c>
       <c r="H4" t="n">
-        <v>9.429642677307129</v>
+        <v>20.29749488830566</v>
       </c>
       <c r="I4" t="n">
-        <v>59.27495574951172</v>
+        <v>34.3211555480957</v>
       </c>
     </row>
     <row r="5">
@@ -575,28 +575,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.8359986529803619</v>
+        <v>0.9035790871707341</v>
       </c>
       <c r="C5" t="n">
-        <v>-0.4134062054082737</v>
+        <v>0.1936252858719442</v>
       </c>
       <c r="D5" t="n">
-        <v>0.9482308503466276</v>
+        <v>0.7902445121586679</v>
       </c>
       <c r="E5" t="n">
-        <v>0.6001365601105371</v>
+        <v>0.6027357516315597</v>
       </c>
       <c r="F5" t="n">
-        <v>19.77861213684082</v>
+        <v>11.62839221954346</v>
       </c>
       <c r="G5" t="n">
-        <v>103.1236801147461</v>
+        <v>44.67915725708008</v>
       </c>
       <c r="H5" t="n">
-        <v>9.457305908203125</v>
+        <v>20.0247688293457</v>
       </c>
       <c r="I5" t="n">
-        <v>59.04537200927734</v>
+        <v>33.07711791992188</v>
       </c>
     </row>
     <row r="6">
@@ -606,28 +606,28 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.8367979661168232</v>
+        <v>0.9062277909461413</v>
       </c>
       <c r="C6" t="n">
-        <v>-0.4070781376350128</v>
+        <v>0.2330635608515388</v>
       </c>
       <c r="D6" t="n">
-        <v>0.9491180774783837</v>
+        <v>0.7925678523436717</v>
       </c>
       <c r="E6" t="n">
-        <v>0.6023081656600671</v>
+        <v>0.6178837846169219</v>
       </c>
       <c r="F6" t="n">
-        <v>19.68221092224121</v>
+        <v>11.30895519256592</v>
       </c>
       <c r="G6" t="n">
-        <v>102.661979675293</v>
+        <v>42.49398422241211</v>
       </c>
       <c r="H6" t="n">
-        <v>9.295226097106934</v>
+        <v>19.80296516418457</v>
       </c>
       <c r="I6" t="n">
-        <v>58.72470855712891</v>
+        <v>31.81586074829102</v>
       </c>
     </row>
     <row r="7">
@@ -637,28 +637,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.8375411555240668</v>
+        <v>0.9089634132038227</v>
       </c>
       <c r="C7" t="n">
-        <v>-0.3989446005611561</v>
+        <v>0.2737825962292796</v>
       </c>
       <c r="D7" t="n">
-        <v>0.9489889626652728</v>
+        <v>0.795016969703507</v>
       </c>
       <c r="E7" t="n">
-        <v>0.6043612527551787</v>
+        <v>0.6335511544996488</v>
       </c>
       <c r="F7" t="n">
-        <v>19.59258651733398</v>
+        <v>10.97904014587402</v>
       </c>
       <c r="G7" t="n">
-        <v>102.0685348510742</v>
+        <v>40.23785018920898</v>
       </c>
       <c r="H7" t="n">
-        <v>9.318812370300293</v>
+        <v>19.56915473937988</v>
       </c>
       <c r="I7" t="n">
-        <v>58.42153930664062</v>
+        <v>30.51136016845703</v>
       </c>
     </row>
     <row r="8">
@@ -668,28 +668,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.8384906076307669</v>
+        <v>0.9117604802371768</v>
       </c>
       <c r="C8" t="n">
-        <v>-0.3895758426313047</v>
+        <v>0.3151958287998557</v>
       </c>
       <c r="D8" t="n">
-        <v>0.9494393466802724</v>
+        <v>0.7977557933773368</v>
       </c>
       <c r="E8" t="n">
-        <v>0.6070734007681677</v>
+        <v>0.6496181020952216</v>
       </c>
       <c r="F8" t="n">
-        <v>19.47807884216309</v>
+        <v>10.64171314239502</v>
       </c>
       <c r="G8" t="n">
-        <v>101.3849792480469</v>
+        <v>37.9432487487793</v>
       </c>
       <c r="H8" t="n">
-        <v>9.23653507232666</v>
+        <v>19.30768775939941</v>
       </c>
       <c r="I8" t="n">
-        <v>58.02105331420898</v>
+        <v>29.17358779907227</v>
       </c>
     </row>
     <row r="9">
@@ -699,28 +699,28 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.8398842408304572</v>
+        <v>0.9144980902784591</v>
       </c>
       <c r="C9" t="n">
-        <v>-0.3759908906230107</v>
+        <v>0.3568505492900687</v>
       </c>
       <c r="D9" t="n">
-        <v>0.9500040251230742</v>
+        <v>0.8000406825358573</v>
       </c>
       <c r="E9" t="n">
-        <v>0.6109563123749573</v>
+        <v>0.665526093089273</v>
       </c>
       <c r="F9" t="n">
-        <v>19.31000900268555</v>
+        <v>10.31155586242676</v>
       </c>
       <c r="G9" t="n">
-        <v>100.3938140869141</v>
+        <v>35.6352653503418</v>
       </c>
       <c r="H9" t="n">
-        <v>9.133378982543945</v>
+        <v>19.08955383300781</v>
       </c>
       <c r="I9" t="n">
-        <v>57.44768905639648</v>
+        <v>27.84905433654785</v>
       </c>
     </row>
     <row r="10">
@@ -730,28 +730,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.8400331055246064</v>
+        <v>0.917251010421487</v>
       </c>
       <c r="C10" t="n">
-        <v>-0.375454214487678</v>
+        <v>0.397933012957748</v>
       </c>
       <c r="D10" t="n">
-        <v>0.9504706719847668</v>
+        <v>0.8030270463211341</v>
       </c>
       <c r="E10" t="n">
-        <v>0.6113689035850923</v>
+        <v>0.6816110882574343</v>
       </c>
       <c r="F10" t="n">
-        <v>19.29205703735352</v>
+        <v>9.97955322265625</v>
       </c>
       <c r="G10" t="n">
-        <v>100.3546524047852</v>
+        <v>33.35899353027344</v>
       </c>
       <c r="H10" t="n">
-        <v>9.048130035400391</v>
+        <v>18.8044548034668</v>
       </c>
       <c r="I10" t="n">
-        <v>57.38676452636719</v>
+        <v>26.50978088378906</v>
       </c>
     </row>
     <row r="11">
@@ -761,121 +761,121 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.8400566986321957</v>
+        <v>0.9198203656696744</v>
       </c>
       <c r="C11" t="n">
-        <v>-0.3759564411046596</v>
+        <v>0.4370692284522976</v>
       </c>
       <c r="D11" t="n">
-        <v>0.9508143701397649</v>
+        <v>0.8058671949367114</v>
       </c>
       <c r="E11" t="n">
-        <v>0.611437584142773</v>
+        <v>0.6969310118441939</v>
       </c>
       <c r="F11" t="n">
-        <v>19.28920936584473</v>
+        <v>9.669687271118164</v>
       </c>
       <c r="G11" t="n">
-        <v>100.3913040161133</v>
+        <v>31.19055557250977</v>
       </c>
       <c r="H11" t="n">
-        <v>8.985342979431152</v>
+        <v>18.5333137512207</v>
       </c>
       <c r="I11" t="n">
-        <v>57.37661743164062</v>
+        <v>25.23420906066895</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>model_5_9_14</t>
+          <t>model_5_9_0</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.8402301359638314</v>
+        <v>0.9209456876901797</v>
       </c>
       <c r="C12" t="n">
-        <v>-0.3747143740420615</v>
+        <v>0.5699990342568142</v>
       </c>
       <c r="D12" t="n">
-        <v>0.9510811085262685</v>
+        <v>0.9808202311379264</v>
       </c>
       <c r="E12" t="n">
-        <v>0.6119173771711728</v>
+        <v>0.8381615569385515</v>
       </c>
       <c r="F12" t="n">
-        <v>19.2682933807373</v>
+        <v>9.533973693847656</v>
       </c>
       <c r="G12" t="n">
-        <v>100.3006820678711</v>
+        <v>23.82525253295898</v>
       </c>
       <c r="H12" t="n">
-        <v>8.936614990234375</v>
+        <v>1.8310387134552</v>
       </c>
       <c r="I12" t="n">
-        <v>57.3057746887207</v>
+        <v>13.47503471374512</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>model_5_9_13</t>
+          <t>model_5_9_14</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.8414565958489136</v>
+        <v>0.9221091040191389</v>
       </c>
       <c r="C13" t="n">
-        <v>-0.3594939652753373</v>
+        <v>0.4734891425552796</v>
       </c>
       <c r="D13" t="n">
-        <v>0.9508191485989824</v>
+        <v>0.8081980743443296</v>
       </c>
       <c r="E13" t="n">
-        <v>0.6157460649531293</v>
+        <v>0.7110192603839988</v>
       </c>
       <c r="F13" t="n">
-        <v>19.12038040161133</v>
+        <v>9.393664360046387</v>
       </c>
       <c r="G13" t="n">
-        <v>99.190185546875</v>
+        <v>29.17261695861816</v>
       </c>
       <c r="H13" t="n">
-        <v>8.984470367431641</v>
+        <v>18.310791015625</v>
       </c>
       <c r="I13" t="n">
-        <v>56.74041366577148</v>
+        <v>24.06118965148926</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>model_5_9_0</t>
+          <t>model_5_9_13</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.8432236391404071</v>
+        <v>0.9239825017459706</v>
       </c>
       <c r="C14" t="n">
-        <v>0.631101095624749</v>
+        <v>0.5064577970135182</v>
       </c>
       <c r="D14" t="n">
-        <v>0.989089128078849</v>
+        <v>0.8093341550339628</v>
       </c>
       <c r="E14" t="n">
-        <v>0.8971500551309601</v>
+        <v>0.7232472951273612</v>
       </c>
       <c r="F14" t="n">
-        <v>18.90727424621582</v>
+        <v>9.167733192443848</v>
       </c>
       <c r="G14" t="n">
-        <v>26.9152717590332</v>
+        <v>27.34590911865234</v>
       </c>
       <c r="H14" t="n">
-        <v>1.993222951889038</v>
+        <v>18.20233345031738</v>
       </c>
       <c r="I14" t="n">
-        <v>15.18721771240234</v>
+        <v>23.04305458068848</v>
       </c>
     </row>
     <row r="15">
@@ -885,369 +885,369 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.8463194097112253</v>
+        <v>0.9254800292359139</v>
       </c>
       <c r="C15" t="n">
-        <v>-0.3136462881120978</v>
+        <v>0.5358853238412777</v>
       </c>
       <c r="D15" t="n">
-        <v>0.9534753735561594</v>
+        <v>0.8097218309325476</v>
       </c>
       <c r="E15" t="n">
-        <v>0.6292855331504645</v>
+        <v>0.7338236268587122</v>
       </c>
       <c r="F15" t="n">
-        <v>18.5339241027832</v>
+        <v>8.987131118774414</v>
       </c>
       <c r="G15" t="n">
-        <v>95.84508514404297</v>
+        <v>25.71540451049805</v>
       </c>
       <c r="H15" t="n">
-        <v>8.499224662780762</v>
+        <v>18.16532325744629</v>
       </c>
       <c r="I15" t="n">
-        <v>54.74112319946289</v>
+        <v>22.16244697570801</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>model_5_9_11</t>
+          <t>model_5_9_1</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.8498720037654879</v>
+        <v>0.9260712169542669</v>
       </c>
       <c r="C16" t="n">
-        <v>-0.25664089828679</v>
+        <v>0.6263218744342921</v>
       </c>
       <c r="D16" t="n">
-        <v>0.9497931666579308</v>
+        <v>0.9746488659649126</v>
       </c>
       <c r="E16" t="n">
-        <v>0.6420534604740835</v>
+        <v>0.8546742625786405</v>
       </c>
       <c r="F16" t="n">
-        <v>18.1054801940918</v>
+        <v>8.915833473205566</v>
       </c>
       <c r="G16" t="n">
-        <v>91.68590545654297</v>
+        <v>20.70454978942871</v>
       </c>
       <c r="H16" t="n">
-        <v>9.17189884185791</v>
+        <v>2.420201539993286</v>
       </c>
       <c r="I16" t="n">
-        <v>52.85576248168945</v>
+        <v>12.1001501083374</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>model_5_9_10</t>
+          <t>model_5_9_8</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.8536594128286669</v>
+        <v>0.9346219702614453</v>
       </c>
       <c r="C17" t="n">
-        <v>-0.2088217107759236</v>
+        <v>0.7997719682766736</v>
       </c>
       <c r="D17" t="n">
-        <v>0.9483031077799198</v>
+        <v>0.8285297140930412</v>
       </c>
       <c r="E17" t="n">
-        <v>0.6536939230274693</v>
+        <v>0.8369395378317135</v>
       </c>
       <c r="F17" t="n">
-        <v>17.64871788024902</v>
+        <v>7.884609699249268</v>
       </c>
       <c r="G17" t="n">
-        <v>88.19696807861328</v>
+        <v>11.09412288665771</v>
       </c>
       <c r="H17" t="n">
-        <v>9.444106101989746</v>
+        <v>16.36978721618652</v>
       </c>
       <c r="I17" t="n">
-        <v>51.13689041137695</v>
+        <v>13.57678318023682</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>model_5_9_9</t>
+          <t>model_5_9_2</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.8565613013354185</v>
+        <v>0.9356987808532836</v>
       </c>
       <c r="C18" t="n">
-        <v>-0.1680765480747883</v>
+        <v>0.7265352224495372</v>
       </c>
       <c r="D18" t="n">
-        <v>0.9471906171456738</v>
+        <v>0.966453436862192</v>
       </c>
       <c r="E18" t="n">
-        <v>0.6637053374369175</v>
+        <v>0.8855574461836943</v>
       </c>
       <c r="F18" t="n">
-        <v>17.29874992370605</v>
+        <v>7.754746437072754</v>
       </c>
       <c r="G18" t="n">
-        <v>85.22415161132812</v>
+        <v>15.15198421478271</v>
       </c>
       <c r="H18" t="n">
-        <v>9.6473388671875</v>
+        <v>3.202596187591553</v>
       </c>
       <c r="I18" t="n">
-        <v>49.65856170654297</v>
+        <v>9.528746604919434</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>model_5_9_8</t>
+          <t>model_5_9_10</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.8591973353608257</v>
+        <v>0.936108634885306</v>
       </c>
       <c r="C19" t="n">
-        <v>-0.129955682242556</v>
+        <v>0.7964109591972509</v>
       </c>
       <c r="D19" t="n">
-        <v>0.9459969276703112</v>
+        <v>0.8243862544340906</v>
       </c>
       <c r="E19" t="n">
-        <v>0.6729813422464035</v>
+        <v>0.8335197194091947</v>
       </c>
       <c r="F19" t="n">
-        <v>16.98084259033203</v>
+        <v>7.705317497253418</v>
       </c>
       <c r="G19" t="n">
-        <v>82.44281768798828</v>
+        <v>11.28034687042236</v>
       </c>
       <c r="H19" t="n">
-        <v>9.86540412902832</v>
+        <v>16.76535034179688</v>
       </c>
       <c r="I19" t="n">
-        <v>48.28883743286133</v>
+        <v>13.86152458190918</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>model_5_9_5</t>
+          <t>model_5_9_9</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.860134630180897</v>
+        <v>0.9374028099472641</v>
       </c>
       <c r="C20" t="n">
-        <v>-0.007883092610059927</v>
+        <v>0.8007217896434163</v>
       </c>
       <c r="D20" t="n">
-        <v>0.9478258050465853</v>
+        <v>0.8425429333878875</v>
       </c>
       <c r="E20" t="n">
-        <v>0.7059794300522688</v>
+        <v>0.8448351420453979</v>
       </c>
       <c r="F20" t="n">
-        <v>16.86780548095703</v>
+        <v>7.549240112304688</v>
       </c>
       <c r="G20" t="n">
-        <v>73.5362548828125</v>
+        <v>11.04149532318115</v>
       </c>
       <c r="H20" t="n">
-        <v>9.531301498413086</v>
+        <v>15.03198432922363</v>
       </c>
       <c r="I20" t="n">
-        <v>43.41621017456055</v>
+        <v>12.91937732696533</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>model_5_9_4</t>
+          <t>model_5_9_11</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.8616656061939049</v>
+        <v>0.9384556927505892</v>
       </c>
       <c r="C21" t="n">
-        <v>0.1221888359023378</v>
+        <v>0.7949879130231794</v>
       </c>
       <c r="D21" t="n">
-        <v>0.9501024945651149</v>
+        <v>0.8368475184459393</v>
       </c>
       <c r="E21" t="n">
-        <v>0.7413294172764641</v>
+        <v>0.8397420279035569</v>
       </c>
       <c r="F21" t="n">
-        <v>16.68316841125488</v>
+        <v>7.422261714935303</v>
       </c>
       <c r="G21" t="n">
-        <v>64.04607391357422</v>
+        <v>11.35919570922852</v>
       </c>
       <c r="H21" t="n">
-        <v>9.115390777587891</v>
+        <v>15.57571029663086</v>
       </c>
       <c r="I21" t="n">
-        <v>38.19629669189453</v>
+        <v>13.34344100952148</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>model_5_9_6</t>
+          <t>model_5_9_3</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.8626586749475141</v>
+        <v>0.9416616216555356</v>
       </c>
       <c r="C22" t="n">
-        <v>-0.006135322045475178</v>
+        <v>0.7796063207302759</v>
       </c>
       <c r="D22" t="n">
-        <v>0.9443537469433033</v>
+        <v>0.9577612662178379</v>
       </c>
       <c r="E22" t="n">
-        <v>0.704414976841216</v>
+        <v>0.8995644163780531</v>
       </c>
       <c r="F22" t="n">
-        <v>16.56340408325195</v>
+        <v>7.035625457763672</v>
       </c>
       <c r="G22" t="n">
-        <v>73.40874481201172</v>
+        <v>12.21145057678223</v>
       </c>
       <c r="H22" t="n">
-        <v>10.16558456420898</v>
+        <v>4.032413482666016</v>
       </c>
       <c r="I22" t="n">
-        <v>43.64722442626953</v>
+        <v>8.362494468688965</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>model_5_9_7</t>
+          <t>model_5_9_4</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0.8637331111901096</v>
+        <v>0.9428344577958778</v>
       </c>
       <c r="C23" t="n">
-        <v>-0.02885218643909915</v>
+        <v>0.7927561447583923</v>
       </c>
       <c r="D23" t="n">
-        <v>0.9443514045341443</v>
+        <v>0.9466926626327723</v>
       </c>
       <c r="E23" t="n">
-        <v>0.6984710154132029</v>
+        <v>0.8982249009447634</v>
       </c>
       <c r="F23" t="n">
-        <v>16.4338264465332</v>
+        <v>6.894181251525879</v>
       </c>
       <c r="G23" t="n">
-        <v>75.06619262695312</v>
+        <v>11.4828519821167</v>
       </c>
       <c r="H23" t="n">
-        <v>10.16601181030273</v>
+        <v>5.089101791381836</v>
       </c>
       <c r="I23" t="n">
-        <v>44.52493286132812</v>
+        <v>8.474024772644043</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>model_5_9_1</t>
+          <t>model_5_9_7</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0.8716405978201885</v>
+        <v>0.9435871923194781</v>
       </c>
       <c r="C24" t="n">
-        <v>0.8800322269497474</v>
+        <v>0.8116214283173512</v>
       </c>
       <c r="D24" t="n">
-        <v>0.9502652776863519</v>
+        <v>0.9062884055515935</v>
       </c>
       <c r="E24" t="n">
-        <v>0.939663434895722</v>
+        <v>0.8830702664324726</v>
       </c>
       <c r="F24" t="n">
-        <v>15.48018169403076</v>
+        <v>6.803401470184326</v>
       </c>
       <c r="G24" t="n">
-        <v>8.75298023223877</v>
+        <v>10.43757438659668</v>
       </c>
       <c r="H24" t="n">
-        <v>9.085652351379395</v>
+        <v>8.946382522583008</v>
       </c>
       <c r="I24" t="n">
-        <v>8.909529685974121</v>
+        <v>9.735834121704102</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>model_5_9_2</t>
+          <t>model_5_9_6</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0.888618669405522</v>
+        <v>0.9440831985511453</v>
       </c>
       <c r="C25" t="n">
-        <v>0.751568153937722</v>
+        <v>0.8088792199790932</v>
       </c>
       <c r="D25" t="n">
-        <v>0.9584549938590951</v>
+        <v>0.9233923570010709</v>
       </c>
       <c r="E25" t="n">
-        <v>0.9108271567395717</v>
+        <v>0.8913329000057253</v>
       </c>
       <c r="F25" t="n">
-        <v>13.43262195587158</v>
+        <v>6.743582725524902</v>
       </c>
       <c r="G25" t="n">
-        <v>18.12586212158203</v>
+        <v>10.58951282501221</v>
       </c>
       <c r="H25" t="n">
-        <v>7.589536666870117</v>
+        <v>7.313516616821289</v>
       </c>
       <c r="I25" t="n">
-        <v>13.16760635375977</v>
+        <v>9.047868728637695</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
         <is>
-          <t>model_5_9_3</t>
+          <t>model_5_9_5</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0.9284869772635133</v>
+        <v>0.9445995019745975</v>
       </c>
       <c r="C26" t="n">
-        <v>0.8959333329299422</v>
+        <v>0.8045014709262561</v>
       </c>
       <c r="D26" t="n">
-        <v>0.9524747784542125</v>
+        <v>0.9423827768568968</v>
       </c>
       <c r="E26" t="n">
-        <v>0.9451092225119221</v>
+        <v>0.9000372539701019</v>
       </c>
       <c r="F26" t="n">
-        <v>8.624491691589355</v>
+        <v>6.681316375732422</v>
       </c>
       <c r="G26" t="n">
-        <v>7.592819213867188</v>
+        <v>10.83207321166992</v>
       </c>
       <c r="H26" t="n">
-        <v>8.682015419006348</v>
+        <v>5.500554084777832</v>
       </c>
       <c r="I26" t="n">
-        <v>8.105384826660156</v>
+        <v>8.323124885559082</v>
       </c>
     </row>
   </sheetData>
